--- a/mucin/MucinDegTable.xlsx
+++ b/mucin/MucinDegTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ecf4928fe261446/Documents/GitHub/OG_MetaG/dbcan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ecf4928fe261446/Documents/GitHub/OG_MetaG/mucin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3952" documentId="8_{823AC7C7-7085-4180-B3B6-259E9669237A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C9BA26C0-5C03-40AF-A82C-68B166F3E8BE}"/>
+  <xr:revisionPtr revIDLastSave="3963" documentId="8_{823AC7C7-7085-4180-B3B6-259E9669237A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AF3FC869-0BCE-4424-B142-31A1BDA7FA0F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{E12190B5-FBFA-48B1-9D43-6098B5871443}"/>
+    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{E12190B5-FBFA-48B1-9D43-6098B5871443}"/>
   </bookViews>
   <sheets>
     <sheet name="Final List" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2759" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2760" uniqueCount="530">
   <si>
     <t>CAZyme</t>
   </si>
@@ -1627,6 +1627,9 @@
   </si>
   <si>
     <t>Fujita 2005; Caines 2008; Williw 2009; Fushinobu 2010; Hobbs 2018</t>
+  </si>
+  <si>
+    <t>Not in eCAMI</t>
   </si>
 </sst>
 </file>
@@ -2305,8 +2308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF9FA654-EA9E-4049-A36C-2280FFCBA81F}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3293,7 +3296,9 @@
       <c r="C57" s="42" t="s">
         <v>441</v>
       </c>
-      <c r="D57" s="42"/>
+      <c r="D57" s="42" t="s">
+        <v>529</v>
+      </c>
       <c r="E57" s="42"/>
       <c r="F57" s="42" t="s">
         <v>457</v>
@@ -11427,7 +11432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3EB00C-3366-4A7B-B49C-AC9EB5EA56B4}">
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G49" sqref="A26:G49"/>
     </sheetView>
   </sheetViews>

--- a/mucin/MucinDegTable.xlsx
+++ b/mucin/MucinDegTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ecf4928fe261446/Documents/GitHub/OG_MetaG/mucin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3963" documentId="8_{823AC7C7-7085-4180-B3B6-259E9669237A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AF3FC869-0BCE-4424-B142-31A1BDA7FA0F}"/>
+  <xr:revisionPtr revIDLastSave="3964" documentId="8_{823AC7C7-7085-4180-B3B6-259E9669237A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BF262E1B-21C5-40D3-92B2-AA757E1B29B2}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{E12190B5-FBFA-48B1-9D43-6098B5871443}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E12190B5-FBFA-48B1-9D43-6098B5871443}"/>
   </bookViews>
   <sheets>
     <sheet name="Final List" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2760" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3041" uniqueCount="531">
   <si>
     <t>CAZyme</t>
   </si>
@@ -1630,6 +1630,9 @@
   </si>
   <si>
     <t>Not in eCAMI</t>
+  </si>
+  <si>
+    <t>Russo 1990; Taylor 1992; Crennell 1994; Roggentin 1995; Chien 1996; Grobe 1998; Newstead 2008; Kiyohara 2011; Park 2013; Tailford 2015; Desai 2016; Juge 2016; Ravcheev 2017; Ndeh 2018; Briliute 2019</t>
   </si>
 </sst>
 </file>
@@ -2308,19 +2311,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF9FA654-EA9E-4049-A36C-2280FFCBA81F}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="21.77734375" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21.77734375" customWidth="1"/>
+    <col min="1" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2340,7 +2343,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>60</v>
       </c>
@@ -2358,7 +2361,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="15" t="s">
         <v>72</v>
@@ -2374,7 +2377,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>155</v>
       </c>
@@ -2394,7 +2397,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>133</v>
       </c>
@@ -2410,7 +2413,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="38" t="s">
         <v>308</v>
@@ -2422,7 +2425,7 @@
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="38" t="s">
         <v>315</v>
@@ -2434,7 +2437,7 @@
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>134</v>
       </c>
@@ -2454,7 +2457,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="25" t="s">
         <v>80</v>
@@ -2470,7 +2473,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>158</v>
       </c>
@@ -2490,7 +2493,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>61</v>
       </c>
@@ -2510,7 +2513,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>137</v>
       </c>
@@ -2528,7 +2531,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="14" t="s">
         <v>3</v>
@@ -2546,7 +2549,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>56</v>
       </c>
@@ -2564,7 +2567,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="22" t="s">
         <v>96</v>
@@ -2580,7 +2583,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>138</v>
       </c>
@@ -2600,7 +2603,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="38" t="s">
         <v>308</v>
@@ -2614,7 +2617,7 @@
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="37" t="s">
         <v>28</v>
@@ -2630,7 +2633,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="38" t="s">
         <v>170</v>
@@ -2644,7 +2647,7 @@
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>55</v>
       </c>
@@ -2659,10 +2662,10 @@
         <v>119</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14" t="s">
@@ -2674,7 +2677,7 @@
       </c>
       <c r="F21" s="14"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="21" t="s">
         <v>101</v>
@@ -2690,7 +2693,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>139</v>
       </c>
@@ -2708,7 +2711,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>140</v>
       </c>
@@ -2726,7 +2729,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="15" t="s">
         <v>3</v>
@@ -2744,7 +2747,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>171</v>
       </c>
@@ -2762,7 +2765,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="15" t="s">
         <v>173</v>
@@ -2780,7 +2783,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>62</v>
       </c>
@@ -2798,7 +2801,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>282</v>
       </c>
@@ -2816,7 +2819,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>279</v>
       </c>
@@ -2834,7 +2837,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="B31" s="31" t="s">
         <v>308</v>
@@ -2846,7 +2849,7 @@
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>58</v>
       </c>
@@ -2866,7 +2869,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="21" t="s">
         <v>109</v>
@@ -2882,7 +2885,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="42" t="s">
         <v>59</v>
       </c>
@@ -2900,7 +2903,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>63</v>
       </c>
@@ -2918,7 +2921,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>177</v>
       </c>
@@ -2936,7 +2939,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="25" t="s">
         <v>80</v>
@@ -2952,7 +2955,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
       <c r="B38" s="25" t="s">
         <v>80</v>
@@ -2968,7 +2971,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>57</v>
       </c>
@@ -2986,7 +2989,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="21" t="s">
         <v>114</v>
@@ -3002,7 +3005,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
         <v>144</v>
       </c>
@@ -3020,7 +3023,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
       <c r="B42" s="15" t="s">
         <v>28</v>
@@ -3036,7 +3039,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="61" t="s">
         <v>145</v>
       </c>
@@ -3056,7 +3059,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>64</v>
       </c>
@@ -3074,7 +3077,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
         <v>157</v>
       </c>
@@ -3094,7 +3097,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="33"/>
       <c r="B46" s="31" t="s">
         <v>15</v>
@@ -3108,7 +3111,7 @@
       <c r="E46" s="24"/>
       <c r="F46" s="24"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
         <v>147</v>
       </c>
@@ -3128,7 +3131,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="42" t="s">
         <v>237</v>
       </c>
@@ -3146,7 +3149,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="61" t="s">
         <v>166</v>
       </c>
@@ -3164,7 +3167,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="26" t="s">
         <v>180</v>
       </c>
@@ -3182,7 +3185,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>65</v>
       </c>
@@ -3202,7 +3205,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>181</v>
       </c>
@@ -3220,7 +3223,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="21"/>
       <c r="B53" s="21" t="s">
         <v>273</v>
@@ -3236,7 +3239,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="44"/>
       <c r="B54" s="22" t="s">
         <v>275</v>
@@ -3252,7 +3255,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="45" t="s">
         <v>161</v>
       </c>
@@ -3270,7 +3273,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="43" t="s">
         <v>288</v>
       </c>
@@ -3286,7 +3289,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="43" t="s">
         <v>288</v>
       </c>
@@ -3304,7 +3307,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="43" t="s">
         <v>288</v>
       </c>
@@ -3320,7 +3323,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="43" t="s">
         <v>288</v>
       </c>
@@ -3338,7 +3341,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="43" t="s">
         <v>288</v>
       </c>
@@ -3354,7 +3357,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="43" t="s">
         <v>288</v>
       </c>
@@ -3381,15 +3384,15 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="21.77734375" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21.77734375" customWidth="1"/>
+    <col min="1" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -3412,7 +3415,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>60</v>
       </c>
@@ -3433,7 +3436,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="15" t="s">
         <v>72</v>
@@ -3452,7 +3455,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="16" t="s">
         <v>87</v>
@@ -3464,7 +3467,7 @@
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="16" t="s">
         <v>71</v>
@@ -3478,7 +3481,7 @@
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="16" t="s">
         <v>83</v>
@@ -3492,7 +3495,7 @@
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="16" t="s">
         <v>74</v>
@@ -3506,7 +3509,7 @@
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="16" t="s">
         <v>85</v>
@@ -3521,7 +3524,7 @@
       <c r="F8" s="14"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="16" t="s">
         <v>76</v>
@@ -3535,7 +3538,7 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="16" t="s">
         <v>78</v>
@@ -3549,7 +3552,7 @@
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="17" t="s">
         <v>80</v>
@@ -3563,7 +3566,7 @@
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
         <v>80</v>
@@ -3577,7 +3580,7 @@
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>155</v>
       </c>
@@ -3597,7 +3600,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="17" t="s">
         <v>87</v>
@@ -3611,7 +3614,7 @@
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="17" t="s">
         <v>83</v>
@@ -3625,7 +3628,7 @@
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="17" t="s">
         <v>195</v>
@@ -3639,7 +3642,7 @@
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="16" t="s">
         <v>74</v>
@@ -3653,7 +3656,7 @@
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="17" t="s">
         <v>187</v>
@@ -3667,7 +3670,7 @@
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="17" t="s">
         <v>363</v>
@@ -3681,7 +3684,7 @@
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="17" t="s">
         <v>355</v>
@@ -3695,7 +3698,7 @@
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="17" t="s">
         <v>357</v>
@@ -3709,7 +3712,7 @@
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="17" t="s">
         <v>99</v>
@@ -3723,7 +3726,7 @@
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="17" t="s">
         <v>80</v>
@@ -3737,7 +3740,7 @@
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="17" t="s">
         <v>80</v>
@@ -3751,7 +3754,7 @@
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="19" t="s">
         <v>80</v>
@@ -3765,7 +3768,7 @@
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>133</v>
       </c>
@@ -3781,7 +3784,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
       <c r="B27" s="38" t="s">
         <v>308</v>
@@ -3793,7 +3796,7 @@
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="17" t="s">
         <v>348</v>
@@ -3805,7 +3808,7 @@
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
       <c r="B29" s="17" t="s">
         <v>183</v>
@@ -3817,7 +3820,7 @@
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
       <c r="B30" s="17" t="s">
         <v>345</v>
@@ -3829,7 +3832,7 @@
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
       <c r="B31" s="38" t="s">
         <v>315</v>
@@ -3841,7 +3844,7 @@
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
       <c r="B32" s="19" t="s">
         <v>350</v>
@@ -3855,7 +3858,7 @@
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
         <v>134</v>
       </c>
@@ -3875,7 +3878,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="25" t="s">
         <v>80</v>
@@ -3891,7 +3894,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="17" t="s">
         <v>365</v>
@@ -3905,7 +3908,7 @@
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="17" t="s">
         <v>369</v>
@@ -3919,7 +3922,7 @@
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
       <c r="B37" s="17" t="s">
         <v>107</v>
@@ -3933,7 +3936,7 @@
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="16"/>
       <c r="B38" s="17" t="s">
         <v>193</v>
@@ -3947,7 +3950,7 @@
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="16"/>
       <c r="B39" s="17" t="s">
         <v>371</v>
@@ -3961,7 +3964,7 @@
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="16"/>
       <c r="B40" s="17" t="s">
         <v>373</v>
@@ -3975,7 +3978,7 @@
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
       <c r="B41" s="17" t="s">
         <v>375</v>
@@ -3989,7 +3992,7 @@
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="B42" s="17" t="s">
         <v>377</v>
@@ -4003,7 +4006,7 @@
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="16"/>
       <c r="B43" s="17" t="s">
         <v>379</v>
@@ -4017,7 +4020,7 @@
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="16"/>
       <c r="B44" s="17" t="s">
         <v>381</v>
@@ -4031,7 +4034,7 @@
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
       <c r="B45" s="17" t="s">
         <v>99</v>
@@ -4045,7 +4048,7 @@
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
       <c r="B46" s="17" t="s">
         <v>99</v>
@@ -4059,7 +4062,7 @@
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="17" t="s">
         <v>385</v>
@@ -4073,7 +4076,7 @@
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="24"/>
       <c r="B48" s="19" t="s">
         <v>80</v>
@@ -4087,7 +4090,7 @@
       <c r="E48" s="18"/>
       <c r="F48" s="18"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="s">
         <v>158</v>
       </c>
@@ -4107,7 +4110,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
       <c r="B50" s="16" t="s">
         <v>264</v>
@@ -4121,7 +4124,7 @@
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="16"/>
       <c r="B51" s="16" t="s">
         <v>285</v>
@@ -4135,7 +4138,7 @@
       <c r="E51" s="16"/>
       <c r="F51" s="16"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="16"/>
       <c r="B52" s="16" t="s">
         <v>80</v>
@@ -4149,7 +4152,7 @@
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="16"/>
       <c r="B53" s="16" t="s">
         <v>80</v>
@@ -4163,7 +4166,7 @@
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="16"/>
       <c r="B54" s="16" t="s">
         <v>288</v>
@@ -4177,7 +4180,7 @@
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="16"/>
       <c r="B55" s="16" t="s">
         <v>288</v>
@@ -4191,7 +4194,7 @@
       <c r="E55" s="16"/>
       <c r="F55" s="16"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="24"/>
       <c r="B56" s="24" t="s">
         <v>288</v>
@@ -4205,7 +4208,7 @@
       <c r="E56" s="24"/>
       <c r="F56" s="24"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>61</v>
       </c>
@@ -4225,7 +4228,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="14"/>
       <c r="B58" s="16" t="s">
         <v>90</v>
@@ -4241,7 +4244,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="14"/>
       <c r="B59" s="17" t="s">
         <v>80</v>
@@ -4255,7 +4258,7 @@
       <c r="E59" s="14"/>
       <c r="F59" s="14"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="18"/>
       <c r="B60" s="19" t="s">
         <v>80</v>
@@ -4269,7 +4272,7 @@
       <c r="E60" s="18"/>
       <c r="F60" s="18"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>137</v>
       </c>
@@ -4287,7 +4290,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="14"/>
       <c r="B62" s="14" t="s">
         <v>3</v>
@@ -4305,7 +4308,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="14"/>
       <c r="B63" s="17" t="s">
         <v>390</v>
@@ -4319,7 +4322,7 @@
       <c r="E63" s="14"/>
       <c r="F63" s="14"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="14"/>
       <c r="B64" s="17" t="s">
         <v>388</v>
@@ -4333,7 +4336,7 @@
       <c r="E64" s="14"/>
       <c r="F64" s="14"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="18"/>
       <c r="B65" s="19" t="s">
         <v>99</v>
@@ -4347,7 +4350,7 @@
       <c r="E65" s="18"/>
       <c r="F65" s="18"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>56</v>
       </c>
@@ -4365,7 +4368,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="18"/>
       <c r="B67" s="22" t="s">
         <v>96</v>
@@ -4381,7 +4384,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
         <v>138</v>
       </c>
@@ -4401,7 +4404,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="25"/>
       <c r="B69" s="17" t="s">
         <v>404</v>
@@ -4415,7 +4418,7 @@
       <c r="E69" s="14"/>
       <c r="F69" s="14"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="14"/>
       <c r="B70" s="17" t="s">
         <v>396</v>
@@ -4429,7 +4432,7 @@
       <c r="E70" s="14"/>
       <c r="F70" s="14"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="14"/>
       <c r="B71" s="17" t="s">
         <v>395</v>
@@ -4443,7 +4446,7 @@
       <c r="E71" s="14"/>
       <c r="F71" s="14"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="14"/>
       <c r="B72" s="38" t="s">
         <v>308</v>
@@ -4457,7 +4460,7 @@
       <c r="E72" s="14"/>
       <c r="F72" s="14"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="14"/>
       <c r="B73" s="37" t="s">
         <v>28</v>
@@ -4473,7 +4476,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="14"/>
       <c r="B74" s="38" t="s">
         <v>170</v>
@@ -4487,7 +4490,7 @@
       <c r="E74" s="14"/>
       <c r="F74" s="14"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="14"/>
       <c r="B75" s="17" t="s">
         <v>393</v>
@@ -4501,7 +4504,7 @@
       <c r="E75" s="14"/>
       <c r="F75" s="14"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="14"/>
       <c r="B76" s="17" t="s">
         <v>398</v>
@@ -4515,7 +4518,7 @@
       <c r="E76" s="14"/>
       <c r="F76" s="14"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="14"/>
       <c r="B77" s="17" t="s">
         <v>406</v>
@@ -4529,7 +4532,7 @@
       <c r="E77" s="14"/>
       <c r="F77" s="14"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="14"/>
       <c r="B78" s="17" t="s">
         <v>401</v>
@@ -4543,7 +4546,7 @@
       <c r="E78" s="14"/>
       <c r="F78" s="14"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="18"/>
       <c r="B79" s="19" t="s">
         <v>99</v>
@@ -4557,7 +4560,7 @@
       <c r="E79" s="18"/>
       <c r="F79" s="18"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
         <v>55</v>
       </c>
@@ -4575,7 +4578,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14" t="s">
@@ -4587,7 +4590,7 @@
       </c>
       <c r="F81" s="14"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="14"/>
       <c r="B82" s="21" t="s">
         <v>101</v>
@@ -4603,7 +4606,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="14"/>
       <c r="B83" s="17" t="s">
         <v>99</v>
@@ -4617,7 +4620,7 @@
       <c r="E83" s="14"/>
       <c r="F83" s="14"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="14"/>
       <c r="B84" s="17" t="s">
         <v>80</v>
@@ -4631,7 +4634,7 @@
       <c r="E84" s="14"/>
       <c r="F84" s="14"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="14"/>
       <c r="B85" s="17" t="s">
         <v>80</v>
@@ -4645,7 +4648,7 @@
       <c r="E85" s="14"/>
       <c r="F85" s="14"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="18"/>
       <c r="B86" s="19" t="s">
         <v>288</v>
@@ -4659,7 +4662,7 @@
       <c r="E86" s="18"/>
       <c r="F86" s="18"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
         <v>139</v>
       </c>
@@ -4677,7 +4680,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="14"/>
       <c r="B88" s="17" t="s">
         <v>78</v>
@@ -4691,7 +4694,7 @@
       <c r="E88" s="14"/>
       <c r="F88" s="14"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="14"/>
       <c r="B89" s="16" t="s">
         <v>80</v>
@@ -4705,7 +4708,7 @@
       <c r="E89" s="14"/>
       <c r="F89" s="14"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="18"/>
       <c r="B90" s="24" t="s">
         <v>80</v>
@@ -4719,7 +4722,7 @@
       <c r="E90" s="18"/>
       <c r="F90" s="18"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
         <v>140</v>
       </c>
@@ -4737,7 +4740,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="14"/>
       <c r="B92" s="15" t="s">
         <v>3</v>
@@ -4755,7 +4758,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="14"/>
       <c r="B93" s="16" t="s">
         <v>409</v>
@@ -4769,7 +4772,7 @@
       <c r="E93" s="14"/>
       <c r="F93" s="14"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="18"/>
       <c r="B94" s="24" t="s">
         <v>411</v>
@@ -4783,7 +4786,7 @@
       <c r="E94" s="18"/>
       <c r="F94" s="18"/>
     </row>
-    <row r="95" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="23" t="s">
         <v>171</v>
       </c>
@@ -4801,7 +4804,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="15"/>
       <c r="B96" s="15" t="s">
         <v>173</v>
@@ -4819,7 +4822,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="97" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="15"/>
       <c r="B97" s="16" t="s">
         <v>172</v>
@@ -4833,7 +4836,7 @@
       <c r="E97" s="16"/>
       <c r="F97" s="25"/>
     </row>
-    <row r="98" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="15"/>
       <c r="B98" s="16" t="s">
         <v>176</v>
@@ -4847,7 +4850,7 @@
       <c r="E98" s="16"/>
       <c r="F98" s="25"/>
     </row>
-    <row r="99" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="26"/>
       <c r="B99" s="19" t="s">
         <v>80</v>
@@ -4861,7 +4864,7 @@
       <c r="E99" s="26"/>
       <c r="F99" s="27"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>62</v>
       </c>
@@ -4879,7 +4882,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="18"/>
       <c r="B101" s="19" t="s">
         <v>80</v>
@@ -4893,7 +4896,7 @@
       <c r="E101" s="18"/>
       <c r="F101" s="18"/>
     </row>
-    <row r="102" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="28" t="s">
         <v>197</v>
       </c>
@@ -4911,7 +4914,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="103" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="20" t="s">
         <v>282</v>
       </c>
@@ -4929,7 +4932,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="104" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="27"/>
       <c r="B104" s="19" t="s">
         <v>314</v>
@@ -4943,7 +4946,7 @@
       <c r="E104" s="19"/>
       <c r="F104" s="19"/>
     </row>
-    <row r="105" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
         <v>279</v>
       </c>
@@ -4961,7 +4964,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="106" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="18"/>
       <c r="B106" s="31" t="s">
         <v>308</v>
@@ -4973,7 +4976,7 @@
       <c r="E106" s="19"/>
       <c r="F106" s="19"/>
     </row>
-    <row r="107" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
         <v>58</v>
       </c>
@@ -4993,7 +4996,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="14"/>
       <c r="B108" s="21" t="s">
         <v>109</v>
@@ -5012,7 +5015,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="18"/>
       <c r="B109" s="24" t="s">
         <v>107</v>
@@ -5026,7 +5029,7 @@
       <c r="E109" s="18"/>
       <c r="F109" s="18"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="42" t="s">
         <v>59</v>
       </c>
@@ -5044,7 +5047,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
         <v>63</v>
       </c>
@@ -5062,7 +5065,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
         <v>177</v>
       </c>
@@ -5080,7 +5083,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="15"/>
       <c r="B113" s="25" t="s">
         <v>80</v>
@@ -5096,7 +5099,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="15"/>
       <c r="B114" s="25" t="s">
         <v>80</v>
@@ -5112,7 +5115,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="17"/>
       <c r="B115" s="17" t="s">
         <v>172</v>
@@ -5126,7 +5129,7 @@
       <c r="E115" s="25"/>
       <c r="F115" s="25"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>80</v>
@@ -5140,7 +5143,7 @@
       <c r="E116" s="17"/>
       <c r="F116" s="17"/>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>80</v>
@@ -5154,7 +5157,7 @@
       <c r="E117" s="17"/>
       <c r="F117" s="17"/>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>80</v>
@@ -5168,7 +5171,7 @@
       <c r="E118" s="17"/>
       <c r="F118" s="17"/>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="19"/>
       <c r="B119" s="19" t="s">
         <v>80</v>
@@ -5182,7 +5185,7 @@
       <c r="E119" s="19"/>
       <c r="F119" s="19"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
         <v>57</v>
       </c>
@@ -5200,7 +5203,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="14"/>
       <c r="B121" s="21" t="s">
         <v>114</v>
@@ -5216,7 +5219,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="18"/>
       <c r="B122" s="19" t="s">
         <v>80</v>
@@ -5230,7 +5233,7 @@
       <c r="E122" s="18"/>
       <c r="F122" s="18"/>
     </row>
-    <row r="123" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="20" t="s">
         <v>144</v>
       </c>
@@ -5248,7 +5251,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="124" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="25"/>
       <c r="B124" s="15" t="s">
         <v>28</v>
@@ -5264,7 +5267,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="125" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="27"/>
       <c r="B125" s="19" t="s">
         <v>306</v>
@@ -5278,7 +5281,7 @@
       <c r="E125" s="27"/>
       <c r="F125" s="27"/>
     </row>
-    <row r="126" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="23" t="s">
         <v>145</v>
       </c>
@@ -5300,7 +5303,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="16"/>
       <c r="B127" s="17" t="s">
         <v>249</v>
@@ -5318,7 +5321,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="128" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="24"/>
       <c r="B128" s="24" t="s">
         <v>80</v>
@@ -5331,7 +5334,7 @@
       <c r="F128" s="24"/>
       <c r="N128"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="18" t="s">
         <v>64</v>
       </c>
@@ -5349,7 +5352,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="28" t="s">
         <v>211</v>
       </c>
@@ -5363,7 +5366,7 @@
       <c r="E130" s="28"/>
       <c r="F130" s="28"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="32" t="s">
         <v>157</v>
       </c>
@@ -5383,7 +5386,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="33"/>
       <c r="B132" s="31" t="s">
         <v>15</v>
@@ -5397,7 +5400,7 @@
       <c r="E132" s="24"/>
       <c r="F132" s="24"/>
     </row>
-    <row r="133" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="20" t="s">
         <v>147</v>
       </c>
@@ -5417,7 +5420,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="24"/>
       <c r="B134" s="24" t="s">
         <v>80</v>
@@ -5431,7 +5434,7 @@
       <c r="E134" s="18"/>
       <c r="F134" s="18"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
         <v>237</v>
       </c>
@@ -5451,7 +5454,7 @@
       <c r="G135" s="7"/>
       <c r="H135" s="7"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="18"/>
       <c r="B136" s="35" t="s">
         <v>413</v>
@@ -5465,7 +5468,7 @@
       <c r="E136" s="24"/>
       <c r="F136" s="18"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="15" t="s">
         <v>166</v>
       </c>
@@ -5483,7 +5486,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="18"/>
       <c r="B138" s="19" t="s">
         <v>80</v>
@@ -5499,7 +5502,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="26" t="s">
         <v>180</v>
       </c>
@@ -5517,7 +5520,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="12" t="s">
         <v>65</v>
       </c>
@@ -5537,7 +5540,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="18"/>
       <c r="B141" s="19" t="s">
         <v>80</v>
@@ -5551,7 +5554,7 @@
       <c r="E141" s="18"/>
       <c r="F141" s="18"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
         <v>181</v>
       </c>
@@ -5569,7 +5572,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="21"/>
       <c r="B143" s="21" t="s">
         <v>273</v>
@@ -5585,7 +5588,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="36"/>
       <c r="B144" s="21" t="s">
         <v>275</v>
@@ -5601,7 +5604,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="14"/>
       <c r="B145" s="17" t="s">
         <v>99</v>
@@ -5615,7 +5618,7 @@
       <c r="E145" s="14"/>
       <c r="F145" s="14"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="14"/>
       <c r="B146" s="17" t="s">
         <v>99</v>
@@ -5629,7 +5632,7 @@
       <c r="E146" s="14"/>
       <c r="F146" s="14"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="18"/>
       <c r="B147" s="19" t="s">
         <v>80</v>
@@ -5643,7 +5646,7 @@
       <c r="E147" s="18"/>
       <c r="F147" s="18"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
         <v>161</v>
       </c>
@@ -5661,7 +5664,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C151" s="4"/>
     </row>
   </sheetData>
@@ -5678,17 +5681,17 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="32" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" customWidth="1"/>
-    <col min="11" max="11" width="39.44140625" customWidth="1"/>
-    <col min="12" max="12" width="17.88671875" customWidth="1"/>
-    <col min="14" max="14" width="93.44140625" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="11" max="11" width="39.42578125" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
+    <col min="14" max="14" width="93.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -5723,7 +5726,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -5756,7 +5759,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>47</v>
       </c>
@@ -5775,7 +5778,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -5790,7 +5793,7 @@
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -5807,7 +5810,7 @@
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -5836,7 +5839,7 @@
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
         <v>36</v>
@@ -5854,7 +5857,7 @@
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>30</v>
       </c>
@@ -5871,7 +5874,7 @@
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -5900,7 +5903,7 @@
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
         <v>37</v>
@@ -5918,7 +5921,7 @@
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -5935,7 +5938,7 @@
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>14</v>
       </c>
@@ -5952,7 +5955,7 @@
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -5984,7 +5987,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>5</v>
       </c>
@@ -6001,7 +6004,7 @@
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>4</v>
       </c>
@@ -6018,7 +6021,7 @@
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
@@ -6045,7 +6048,7 @@
       <c r="M16" s="14"/>
       <c r="N16" s="14"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
         <v>33</v>
@@ -6066,7 +6069,7 @@
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -6095,7 +6098,7 @@
       <c r="M18" s="14"/>
       <c r="N18" s="14"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" t="s">
         <v>21</v>
@@ -6113,7 +6116,7 @@
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>22</v>
       </c>
@@ -6130,7 +6133,7 @@
       <c r="M20" s="14"/>
       <c r="N20" s="14"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>23</v>
       </c>
@@ -6147,7 +6150,7 @@
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>24</v>
       </c>
@@ -6164,7 +6167,7 @@
       <c r="M22" s="14"/>
       <c r="N22" s="14"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -6193,7 +6196,7 @@
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" t="s">
         <v>16</v>
@@ -6214,7 +6217,7 @@
       <c r="M24" s="14"/>
       <c r="N24" s="14"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>17</v>
       </c>
@@ -6234,7 +6237,7 @@
       <c r="M25" s="18"/>
       <c r="N25" s="18"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>18</v>
       </c>
@@ -6256,7 +6259,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>19</v>
       </c>
@@ -6274,7 +6277,7 @@
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>25</v>
       </c>
@@ -6299,7 +6302,7 @@
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6" t="s">
         <v>27</v>
@@ -6318,7 +6321,7 @@
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I30" s="21"/>
       <c r="J30" s="17" t="s">
         <v>345</v>
@@ -6330,7 +6333,7 @@
       <c r="M30" s="14"/>
       <c r="N30" s="14"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I31" s="21"/>
       <c r="J31" s="38" t="s">
         <v>315</v>
@@ -6342,7 +6345,7 @@
       <c r="M31" s="14"/>
       <c r="N31" s="14"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I32" s="22"/>
       <c r="J32" s="19" t="s">
         <v>350</v>
@@ -6356,7 +6359,7 @@
       <c r="M32" s="18"/>
       <c r="N32" s="18"/>
     </row>
-    <row r="33" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I33" s="23" t="s">
         <v>134</v>
       </c>
@@ -6376,7 +6379,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="34" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I34" s="15"/>
       <c r="J34" s="17" t="s">
         <v>365</v>
@@ -6390,7 +6393,7 @@
       <c r="M34" s="14"/>
       <c r="N34" s="14"/>
     </row>
-    <row r="35" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I35" s="15"/>
       <c r="J35" s="17" t="s">
         <v>369</v>
@@ -6404,7 +6407,7 @@
       <c r="M35" s="14"/>
       <c r="N35" s="14"/>
     </row>
-    <row r="36" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I36" s="16"/>
       <c r="J36" s="17" t="s">
         <v>107</v>
@@ -6418,7 +6421,7 @@
       <c r="M36" s="14"/>
       <c r="N36" s="14"/>
     </row>
-    <row r="37" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I37" s="16"/>
       <c r="J37" s="17" t="s">
         <v>193</v>
@@ -6432,7 +6435,7 @@
       <c r="M37" s="14"/>
       <c r="N37" s="14"/>
     </row>
-    <row r="38" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I38" s="16"/>
       <c r="J38" s="17" t="s">
         <v>371</v>
@@ -6446,7 +6449,7 @@
       <c r="M38" s="14"/>
       <c r="N38" s="14"/>
     </row>
-    <row r="39" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I39" s="16"/>
       <c r="J39" s="17" t="s">
         <v>373</v>
@@ -6460,7 +6463,7 @@
       <c r="M39" s="14"/>
       <c r="N39" s="14"/>
     </row>
-    <row r="40" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I40" s="16"/>
       <c r="J40" s="17" t="s">
         <v>375</v>
@@ -6474,7 +6477,7 @@
       <c r="M40" s="14"/>
       <c r="N40" s="14"/>
     </row>
-    <row r="41" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I41" s="16"/>
       <c r="J41" s="17" t="s">
         <v>377</v>
@@ -6488,7 +6491,7 @@
       <c r="M41" s="14"/>
       <c r="N41" s="14"/>
     </row>
-    <row r="42" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I42" s="16"/>
       <c r="J42" s="17" t="s">
         <v>379</v>
@@ -6502,7 +6505,7 @@
       <c r="M42" s="14"/>
       <c r="N42" s="14"/>
     </row>
-    <row r="43" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I43" s="16"/>
       <c r="J43" s="17" t="s">
         <v>381</v>
@@ -6516,7 +6519,7 @@
       <c r="M43" s="14"/>
       <c r="N43" s="14"/>
     </row>
-    <row r="44" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I44" s="16"/>
       <c r="J44" s="17" t="s">
         <v>99</v>
@@ -6530,7 +6533,7 @@
       <c r="M44" s="14"/>
       <c r="N44" s="14"/>
     </row>
-    <row r="45" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I45" s="16"/>
       <c r="J45" s="17" t="s">
         <v>99</v>
@@ -6544,7 +6547,7 @@
       <c r="M45" s="14"/>
       <c r="N45" s="14"/>
     </row>
-    <row r="46" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I46" s="16"/>
       <c r="J46" s="17" t="s">
         <v>80</v>
@@ -6560,7 +6563,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="47" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I47" s="16"/>
       <c r="J47" s="17" t="s">
         <v>385</v>
@@ -6574,7 +6577,7 @@
       <c r="M47" s="14"/>
       <c r="N47" s="14"/>
     </row>
-    <row r="48" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I48" s="24"/>
       <c r="J48" s="19" t="s">
         <v>80</v>
@@ -6588,7 +6591,7 @@
       <c r="M48" s="18"/>
       <c r="N48" s="18"/>
     </row>
-    <row r="49" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I49" s="23" t="s">
         <v>158</v>
       </c>
@@ -6608,7 +6611,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="50" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I50" s="15"/>
       <c r="J50" s="16" t="s">
         <v>264</v>
@@ -6622,7 +6625,7 @@
       <c r="M50" s="14"/>
       <c r="N50" s="14"/>
     </row>
-    <row r="51" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I51" s="16"/>
       <c r="J51" s="16" t="s">
         <v>285</v>
@@ -6636,7 +6639,7 @@
       <c r="M51" s="16"/>
       <c r="N51" s="16"/>
     </row>
-    <row r="52" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I52" s="16"/>
       <c r="J52" s="16" t="s">
         <v>80</v>
@@ -6650,7 +6653,7 @@
       <c r="M52" s="16"/>
       <c r="N52" s="16"/>
     </row>
-    <row r="53" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I53" s="16"/>
       <c r="J53" s="16" t="s">
         <v>80</v>
@@ -6664,7 +6667,7 @@
       <c r="M53" s="16"/>
       <c r="N53" s="16"/>
     </row>
-    <row r="54" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I54" s="16"/>
       <c r="J54" s="16" t="s">
         <v>288</v>
@@ -6678,7 +6681,7 @@
       <c r="M54" s="16"/>
       <c r="N54" s="16"/>
     </row>
-    <row r="55" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I55" s="16"/>
       <c r="J55" s="16" t="s">
         <v>288</v>
@@ -6692,7 +6695,7 @@
       <c r="M55" s="16"/>
       <c r="N55" s="16"/>
     </row>
-    <row r="56" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I56" s="24"/>
       <c r="J56" s="24" t="s">
         <v>288</v>
@@ -6706,7 +6709,7 @@
       <c r="M56" s="24"/>
       <c r="N56" s="24"/>
     </row>
-    <row r="57" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I57" s="12" t="s">
         <v>61</v>
       </c>
@@ -6726,7 +6729,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="58" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I58" s="14"/>
       <c r="J58" s="16" t="s">
         <v>90</v>
@@ -6742,7 +6745,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="59" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I59" s="14"/>
       <c r="J59" s="17" t="s">
         <v>80</v>
@@ -6756,7 +6759,7 @@
       <c r="M59" s="14"/>
       <c r="N59" s="14"/>
     </row>
-    <row r="60" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I60" s="18"/>
       <c r="J60" s="19" t="s">
         <v>80</v>
@@ -6770,7 +6773,7 @@
       <c r="M60" s="18"/>
       <c r="N60" s="18"/>
     </row>
-    <row r="61" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I61" s="12" t="s">
         <v>137</v>
       </c>
@@ -6788,7 +6791,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="62" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I62" s="14"/>
       <c r="J62" s="14" t="s">
         <v>3</v>
@@ -6806,7 +6809,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="63" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I63" s="14"/>
       <c r="J63" s="17" t="s">
         <v>390</v>
@@ -6820,7 +6823,7 @@
       <c r="M63" s="14"/>
       <c r="N63" s="14"/>
     </row>
-    <row r="64" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I64" s="14"/>
       <c r="J64" s="17" t="s">
         <v>388</v>
@@ -6834,7 +6837,7 @@
       <c r="M64" s="14"/>
       <c r="N64" s="14"/>
     </row>
-    <row r="65" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I65" s="18"/>
       <c r="J65" s="19" t="s">
         <v>99</v>
@@ -6848,7 +6851,7 @@
       <c r="M65" s="18"/>
       <c r="N65" s="18"/>
     </row>
-    <row r="66" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I66" s="12" t="s">
         <v>56</v>
       </c>
@@ -6866,7 +6869,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="67" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I67" s="18"/>
       <c r="J67" s="22" t="s">
         <v>96</v>
@@ -6882,7 +6885,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="68" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I68" s="20" t="s">
         <v>138</v>
       </c>
@@ -6902,7 +6905,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="69" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I69" s="25"/>
       <c r="J69" s="17" t="s">
         <v>404</v>
@@ -6916,7 +6919,7 @@
       <c r="M69" s="14"/>
       <c r="N69" s="14"/>
     </row>
-    <row r="70" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I70" s="14"/>
       <c r="J70" s="17" t="s">
         <v>396</v>
@@ -6930,7 +6933,7 @@
       <c r="M70" s="14"/>
       <c r="N70" s="14"/>
     </row>
-    <row r="71" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I71" s="14"/>
       <c r="J71" s="17" t="s">
         <v>395</v>
@@ -6944,7 +6947,7 @@
       <c r="M71" s="14"/>
       <c r="N71" s="14"/>
     </row>
-    <row r="72" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I72" s="14"/>
       <c r="J72" s="38" t="s">
         <v>308</v>
@@ -6958,7 +6961,7 @@
       <c r="M72" s="14"/>
       <c r="N72" s="14"/>
     </row>
-    <row r="73" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I73" s="14"/>
       <c r="J73" s="37" t="s">
         <v>28</v>
@@ -6974,7 +6977,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="74" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I74" s="14"/>
       <c r="J74" s="38" t="s">
         <v>170</v>
@@ -6988,7 +6991,7 @@
       <c r="M74" s="14"/>
       <c r="N74" s="14"/>
     </row>
-    <row r="75" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I75" s="14"/>
       <c r="J75" s="17" t="s">
         <v>393</v>
@@ -7002,7 +7005,7 @@
       <c r="M75" s="14"/>
       <c r="N75" s="14"/>
     </row>
-    <row r="76" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I76" s="14"/>
       <c r="J76" s="17" t="s">
         <v>398</v>
@@ -7016,7 +7019,7 @@
       <c r="M76" s="14"/>
       <c r="N76" s="14"/>
     </row>
-    <row r="77" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I77" s="14"/>
       <c r="J77" s="17" t="s">
         <v>406</v>
@@ -7030,7 +7033,7 @@
       <c r="M77" s="14"/>
       <c r="N77" s="14"/>
     </row>
-    <row r="78" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I78" s="14"/>
       <c r="J78" s="17" t="s">
         <v>401</v>
@@ -7044,7 +7047,7 @@
       <c r="M78" s="14"/>
       <c r="N78" s="14"/>
     </row>
-    <row r="79" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I79" s="18"/>
       <c r="J79" s="19" t="s">
         <v>99</v>
@@ -7058,7 +7061,7 @@
       <c r="M79" s="18"/>
       <c r="N79" s="18"/>
     </row>
-    <row r="80" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I80" s="12" t="s">
         <v>55</v>
       </c>
@@ -7076,7 +7079,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="81" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I81" s="14"/>
       <c r="J81" s="14"/>
       <c r="K81" s="14" t="s">
@@ -7088,7 +7091,7 @@
       </c>
       <c r="N81" s="14"/>
     </row>
-    <row r="82" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I82" s="14"/>
       <c r="J82" s="21" t="s">
         <v>101</v>
@@ -7104,7 +7107,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="83" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I83" s="14"/>
       <c r="J83" s="17" t="s">
         <v>99</v>
@@ -7118,7 +7121,7 @@
       <c r="M83" s="14"/>
       <c r="N83" s="14"/>
     </row>
-    <row r="84" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I84" s="14"/>
       <c r="J84" s="17" t="s">
         <v>80</v>
@@ -7132,7 +7135,7 @@
       <c r="M84" s="14"/>
       <c r="N84" s="14"/>
     </row>
-    <row r="85" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I85" s="14"/>
       <c r="J85" s="17" t="s">
         <v>80</v>
@@ -7146,7 +7149,7 @@
       <c r="M85" s="14"/>
       <c r="N85" s="14"/>
     </row>
-    <row r="86" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I86" s="18"/>
       <c r="J86" s="19"/>
       <c r="K86" s="19" t="s">
@@ -7158,7 +7161,7 @@
       <c r="M86" s="18"/>
       <c r="N86" s="18"/>
     </row>
-    <row r="87" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I87" s="12" t="s">
         <v>139</v>
       </c>
@@ -7176,7 +7179,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="88" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I88" s="14"/>
       <c r="J88" s="17" t="s">
         <v>78</v>
@@ -7190,7 +7193,7 @@
       <c r="M88" s="14"/>
       <c r="N88" s="14"/>
     </row>
-    <row r="89" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I89" s="14"/>
       <c r="J89" s="16" t="s">
         <v>80</v>
@@ -7204,7 +7207,7 @@
       <c r="M89" s="14"/>
       <c r="N89" s="14"/>
     </row>
-    <row r="90" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I90" s="18"/>
       <c r="J90" s="24" t="s">
         <v>80</v>
@@ -7218,7 +7221,7 @@
       <c r="M90" s="18"/>
       <c r="N90" s="18"/>
     </row>
-    <row r="91" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I91" s="12" t="s">
         <v>140</v>
       </c>
@@ -7236,7 +7239,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="92" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I92" s="14"/>
       <c r="J92" s="15" t="s">
         <v>3</v>
@@ -7254,7 +7257,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="93" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I93" s="14"/>
       <c r="J93" s="16" t="s">
         <v>409</v>
@@ -7268,7 +7271,7 @@
       <c r="M93" s="14"/>
       <c r="N93" s="14"/>
     </row>
-    <row r="94" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I94" s="18"/>
       <c r="J94" s="24" t="s">
         <v>411</v>
@@ -7282,7 +7285,7 @@
       <c r="M94" s="18"/>
       <c r="N94" s="18"/>
     </row>
-    <row r="95" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I95" s="23" t="s">
         <v>171</v>
       </c>
@@ -7300,7 +7303,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="96" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I96" s="15"/>
       <c r="J96" s="15" t="s">
         <v>173</v>
@@ -7318,7 +7321,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="97" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I97" s="15"/>
       <c r="J97" s="16" t="s">
         <v>172</v>
@@ -7332,7 +7335,7 @@
       <c r="M97" s="16"/>
       <c r="N97" s="25"/>
     </row>
-    <row r="98" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I98" s="15"/>
       <c r="J98" s="16" t="s">
         <v>176</v>
@@ -7346,7 +7349,7 @@
       <c r="M98" s="16"/>
       <c r="N98" s="25"/>
     </row>
-    <row r="99" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I99" s="26"/>
       <c r="J99" s="19" t="s">
         <v>80</v>
@@ -7360,7 +7363,7 @@
       <c r="M99" s="26"/>
       <c r="N99" s="27"/>
     </row>
-    <row r="100" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I100" s="12" t="s">
         <v>62</v>
       </c>
@@ -7378,7 +7381,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="101" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I101" s="18"/>
       <c r="J101" s="19" t="s">
         <v>80</v>
@@ -7392,7 +7395,7 @@
       <c r="M101" s="18"/>
       <c r="N101" s="18"/>
     </row>
-    <row r="102" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I102" s="28" t="s">
         <v>197</v>
       </c>
@@ -7408,7 +7411,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="103" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I103" s="20" t="s">
         <v>282</v>
       </c>
@@ -7426,7 +7429,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="104" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I104" s="27"/>
       <c r="J104" s="19" t="s">
         <v>314</v>
@@ -7440,7 +7443,7 @@
       <c r="M104" s="19"/>
       <c r="N104" s="19"/>
     </row>
-    <row r="105" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I105" s="12" t="s">
         <v>279</v>
       </c>
@@ -7458,7 +7461,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="106" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I106" s="18"/>
       <c r="J106" s="31" t="s">
         <v>308</v>
@@ -7470,7 +7473,7 @@
       <c r="M106" s="19"/>
       <c r="N106" s="19"/>
     </row>
-    <row r="107" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I107" s="12" t="s">
         <v>58</v>
       </c>
@@ -7490,7 +7493,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="108" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I108" s="14"/>
       <c r="J108" s="21" t="s">
         <v>109</v>
@@ -7506,7 +7509,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="109" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I109" s="18"/>
       <c r="J109" s="24" t="s">
         <v>107</v>
@@ -7520,7 +7523,7 @@
       <c r="M109" s="18"/>
       <c r="N109" s="18"/>
     </row>
-    <row r="110" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I110" s="42" t="s">
         <v>59</v>
       </c>
@@ -7538,7 +7541,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="111" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I111" s="18" t="s">
         <v>63</v>
       </c>
@@ -7556,7 +7559,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="112" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I112" s="15" t="s">
         <v>177</v>
       </c>
@@ -7574,7 +7577,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="113" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I113" s="17"/>
       <c r="J113" s="17" t="s">
         <v>172</v>
@@ -7588,7 +7591,7 @@
       <c r="M113" s="25"/>
       <c r="N113" s="25"/>
     </row>
-    <row r="114" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I114" s="17"/>
       <c r="J114" s="17" t="s">
         <v>80</v>
@@ -7602,7 +7605,7 @@
       <c r="M114" s="17"/>
       <c r="N114" s="17"/>
     </row>
-    <row r="115" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I115" s="17"/>
       <c r="J115" s="17" t="s">
         <v>80</v>
@@ -7616,7 +7619,7 @@
       <c r="M115" s="17"/>
       <c r="N115" s="17"/>
     </row>
-    <row r="116" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I116" s="17"/>
       <c r="J116" s="17" t="s">
         <v>80</v>
@@ -7632,7 +7635,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="117" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I117" s="17"/>
       <c r="J117" s="17" t="s">
         <v>80</v>
@@ -7648,7 +7651,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="118" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I118" s="17"/>
       <c r="J118" s="17" t="s">
         <v>80</v>
@@ -7662,7 +7665,7 @@
       <c r="M118" s="17"/>
       <c r="N118" s="17"/>
     </row>
-    <row r="119" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I119" s="19"/>
       <c r="J119" s="19" t="s">
         <v>80</v>
@@ -7676,7 +7679,7 @@
       <c r="M119" s="19"/>
       <c r="N119" s="19"/>
     </row>
-    <row r="120" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I120" s="12" t="s">
         <v>57</v>
       </c>
@@ -7694,7 +7697,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="121" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I121" s="14"/>
       <c r="J121" s="21" t="s">
         <v>114</v>
@@ -7710,7 +7713,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="122" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I122" s="18"/>
       <c r="J122" s="19" t="s">
         <v>80</v>
@@ -7724,7 +7727,7 @@
       <c r="M122" s="18"/>
       <c r="N122" s="18"/>
     </row>
-    <row r="123" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I123" s="20" t="s">
         <v>144</v>
       </c>
@@ -7742,7 +7745,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="124" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I124" s="25"/>
       <c r="J124" s="15" t="s">
         <v>28</v>
@@ -7758,7 +7761,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="125" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I125" s="27"/>
       <c r="J125" s="19" t="s">
         <v>306</v>
@@ -7772,7 +7775,7 @@
       <c r="M125" s="27"/>
       <c r="N125" s="27"/>
     </row>
-    <row r="126" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I126" s="23" t="s">
         <v>145</v>
       </c>
@@ -7792,7 +7795,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="127" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I127" s="16"/>
       <c r="J127" s="17" t="s">
         <v>249</v>
@@ -7810,7 +7813,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="128" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I128" s="24"/>
       <c r="J128" s="24" t="s">
         <v>80</v>
@@ -7822,7 +7825,7 @@
       <c r="M128" s="24"/>
       <c r="N128" s="24"/>
     </row>
-    <row r="129" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I129" s="18" t="s">
         <v>64</v>
       </c>
@@ -7840,7 +7843,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="130" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I130" s="28" t="s">
         <v>211</v>
       </c>
@@ -7852,7 +7855,7 @@
       <c r="M130" s="28"/>
       <c r="N130" s="28"/>
     </row>
-    <row r="131" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I131" s="32" t="s">
         <v>157</v>
       </c>
@@ -7872,7 +7875,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="132" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="132" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I132" s="33"/>
       <c r="J132" s="31" t="s">
         <v>15</v>
@@ -7886,7 +7889,7 @@
       <c r="M132" s="24"/>
       <c r="N132" s="24"/>
     </row>
-    <row r="133" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="133" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I133" s="20" t="s">
         <v>147</v>
       </c>
@@ -7906,7 +7909,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="134" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I134" s="24"/>
       <c r="J134" s="24" t="s">
         <v>80</v>
@@ -7920,7 +7923,7 @@
       <c r="M134" s="18"/>
       <c r="N134" s="18"/>
     </row>
-    <row r="135" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="135" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I135" s="12" t="s">
         <v>237</v>
       </c>
@@ -7938,7 +7941,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="136" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I136" s="18"/>
       <c r="J136" s="35" t="s">
         <v>413</v>
@@ -7952,7 +7955,7 @@
       <c r="M136" s="24"/>
       <c r="N136" s="18"/>
     </row>
-    <row r="137" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I137" s="24" t="s">
         <v>166</v>
       </c>
@@ -7970,7 +7973,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="138" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I138" s="24" t="s">
         <v>180</v>
       </c>
@@ -7988,7 +7991,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="139" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I139" s="12" t="s">
         <v>65</v>
       </c>
@@ -8008,7 +8011,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="140" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I140" s="18"/>
       <c r="J140" s="19" t="s">
         <v>80</v>
@@ -8022,7 +8025,7 @@
       <c r="M140" s="18"/>
       <c r="N140" s="18"/>
     </row>
-    <row r="141" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I141" s="13" t="s">
         <v>181</v>
       </c>
@@ -8040,7 +8043,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="142" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I142" s="21"/>
       <c r="J142" s="21" t="s">
         <v>273</v>
@@ -8056,7 +8059,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="143" spans="9:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="9:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I143" s="36"/>
       <c r="J143" s="21" t="s">
         <v>275</v>
@@ -8072,7 +8075,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="144" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="144" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I144" s="14"/>
       <c r="J144" s="17" t="s">
         <v>99</v>
@@ -8086,7 +8089,7 @@
       <c r="M144" s="14"/>
       <c r="N144" s="14"/>
     </row>
-    <row r="145" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="145" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I145" s="14"/>
       <c r="J145" s="17" t="s">
         <v>99</v>
@@ -8100,7 +8103,7 @@
       <c r="M145" s="14"/>
       <c r="N145" s="14"/>
     </row>
-    <row r="146" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="146" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I146" s="18"/>
       <c r="J146" s="19" t="s">
         <v>80</v>
@@ -8114,7 +8117,7 @@
       <c r="M146" s="18"/>
       <c r="N146" s="18"/>
     </row>
-    <row r="147" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="147" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I147" s="2" t="s">
         <v>161</v>
       </c>
@@ -8145,14 +8148,14 @@
       <selection activeCell="A124" sqref="A124:A126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.109375" customWidth="1"/>
-    <col min="14" max="14" width="39.44140625" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="14" max="14" width="39.42578125" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -8187,7 +8190,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G2" t="s">
         <v>162</v>
       </c>
@@ -8208,7 +8211,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -8239,7 +8242,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -8266,7 +8269,7 @@
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -8292,7 +8295,7 @@
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -8319,7 +8322,7 @@
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>124</v>
       </c>
@@ -8343,7 +8346,7 @@
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="3"/>
       <c r="F8" s="14"/>
       <c r="I8" s="1"/>
@@ -8360,7 +8363,7 @@
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -8386,7 +8389,7 @@
       <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -8410,7 +8413,7 @@
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -8434,7 +8437,7 @@
       <c r="P11" s="14"/>
       <c r="Q11" s="14"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>138</v>
       </c>
@@ -8457,7 +8460,7 @@
       <c r="P12" s="18"/>
       <c r="Q12" s="18"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>140</v>
       </c>
@@ -8486,7 +8489,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" s="39" t="s">
         <v>142</v>
       </c>
@@ -8506,7 +8509,7 @@
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>57</v>
       </c>
@@ -8526,7 +8529,7 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>144</v>
       </c>
@@ -8549,7 +8552,7 @@
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>147</v>
       </c>
@@ -8575,7 +8578,7 @@
       <c r="P17" s="14"/>
       <c r="Q17" s="14"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>148</v>
       </c>
@@ -8595,7 +8598,7 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="14"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>65</v>
       </c>
@@ -8615,7 +8618,7 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="14"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="4"/>
       <c r="L20" s="14"/>
@@ -8631,7 +8634,7 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="14"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -8658,7 +8661,7 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="14"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -8681,7 +8684,7 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="14"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -8711,7 +8714,7 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="14"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -8734,7 +8737,7 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="14"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>62</v>
       </c>
@@ -8755,7 +8758,7 @@
       <c r="P25" s="18"/>
       <c r="Q25" s="18"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B26" s="39" t="s">
         <v>143</v>
       </c>
@@ -8778,7 +8781,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B27" s="41" t="s">
         <v>145</v>
       </c>
@@ -8803,7 +8806,7 @@
       <c r="P27" s="14"/>
       <c r="Q27" s="14"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>149</v>
       </c>
@@ -8823,7 +8826,7 @@
       <c r="P28" s="14"/>
       <c r="Q28" s="14"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>150</v>
       </c>
@@ -8843,7 +8846,7 @@
       <c r="P29" s="14"/>
       <c r="Q29" s="14"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>151</v>
       </c>
@@ -8863,7 +8866,7 @@
       <c r="P30" s="14"/>
       <c r="Q30" s="14"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D31" s="2"/>
       <c r="I31" s="1"/>
       <c r="L31" s="21"/>
@@ -8877,7 +8880,7 @@
       <c r="P31" s="14"/>
       <c r="Q31" s="14"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -8903,7 +8906,7 @@
       <c r="P32" s="18"/>
       <c r="Q32" s="18"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -8935,7 +8938,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -8958,7 +8961,7 @@
       <c r="P34" s="14"/>
       <c r="Q34" s="14"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -8981,7 +8984,7 @@
       <c r="P35" s="14"/>
       <c r="Q35" s="14"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -9004,7 +9007,7 @@
       <c r="P36" s="14"/>
       <c r="Q36" s="14"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L37" s="16"/>
       <c r="M37" s="17" t="s">
         <v>193</v>
@@ -9018,7 +9021,7 @@
       <c r="P37" s="14"/>
       <c r="Q37" s="14"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
@@ -9044,7 +9047,7 @@
       <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -9067,7 +9070,7 @@
       <c r="P39" s="14"/>
       <c r="Q39" s="14"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -9084,7 +9087,7 @@
       <c r="P40" s="14"/>
       <c r="Q40" s="14"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -9101,7 +9104,7 @@
       <c r="P41" s="14"/>
       <c r="Q41" s="14"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>129</v>
       </c>
@@ -9118,7 +9121,7 @@
       <c r="P42" s="14"/>
       <c r="Q42" s="14"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L43" s="16"/>
       <c r="M43" s="17" t="s">
         <v>381</v>
@@ -9132,7 +9135,7 @@
       <c r="P43" s="14"/>
       <c r="Q43" s="14"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>32</v>
       </c>
@@ -9158,7 +9161,7 @@
       <c r="P44" s="14"/>
       <c r="Q44" s="14"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>33</v>
       </c>
@@ -9175,7 +9178,7 @@
       <c r="P45" s="14"/>
       <c r="Q45" s="14"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L46" s="16"/>
       <c r="M46" s="17" t="s">
         <v>80</v>
@@ -9191,7 +9194,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>34</v>
       </c>
@@ -9217,7 +9220,7 @@
       <c r="P47" s="14"/>
       <c r="Q47" s="14"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -9240,7 +9243,7 @@
       <c r="P48" s="18"/>
       <c r="Q48" s="18"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>159</v>
       </c>
@@ -9266,7 +9269,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
         <v>58</v>
       </c>
@@ -9292,7 +9295,7 @@
       <c r="P50" s="14"/>
       <c r="Q50" s="14"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
         <v>59</v>
       </c>
@@ -9315,7 +9318,7 @@
       <c r="P51" s="16"/>
       <c r="Q51" s="16"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>160</v>
       </c>
@@ -9335,7 +9338,7 @@
       <c r="P52" s="16"/>
       <c r="Q52" s="16"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>161</v>
       </c>
@@ -9355,7 +9358,7 @@
       <c r="P53" s="16"/>
       <c r="Q53" s="16"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="L54" s="16"/>
       <c r="M54" s="16" t="s">
@@ -9370,7 +9373,7 @@
       <c r="P54" s="16"/>
       <c r="Q54" s="16"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -9396,7 +9399,7 @@
       <c r="P55" s="16"/>
       <c r="Q55" s="16"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -9422,7 +9425,7 @@
       <c r="P56" s="24"/>
       <c r="Q56" s="24"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -9454,7 +9457,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>26</v>
       </c>
@@ -9479,7 +9482,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>27</v>
       </c>
@@ -9505,7 +9508,7 @@
       <c r="P59" s="14"/>
       <c r="Q59" s="14"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="2" t="s">
         <v>164</v>
@@ -9526,7 +9529,7 @@
       <c r="P60" s="18"/>
       <c r="Q60" s="18"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="6" t="s">
         <v>65</v>
@@ -9551,7 +9554,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L62" s="14"/>
       <c r="M62" s="14" t="s">
         <v>3</v>
@@ -9569,7 +9572,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" t="s">
@@ -9588,7 +9591,7 @@
       <c r="P63" s="14"/>
       <c r="Q63" s="14"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="L64" s="14"/>
@@ -9604,7 +9607,7 @@
       <c r="P64" s="14"/>
       <c r="Q64" s="14"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>41</v>
       </c>
@@ -9627,7 +9630,7 @@
       <c r="P65" s="18"/>
       <c r="Q65" s="18"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>48</v>
       </c>
@@ -9663,7 +9666,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>174</v>
       </c>
@@ -9685,7 +9688,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>175</v>
       </c>
@@ -9711,7 +9714,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>177</v>
       </c>
@@ -9737,7 +9740,7 @@
       <c r="P69" s="14"/>
       <c r="Q69" s="14"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>178</v>
       </c>
@@ -9757,7 +9760,7 @@
       <c r="P70" s="14"/>
       <c r="Q70" s="14"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>180</v>
       </c>
@@ -9777,7 +9780,7 @@
       <c r="P71" s="14"/>
       <c r="Q71" s="14"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L72" s="14"/>
       <c r="M72" s="38" t="s">
         <v>308</v>
@@ -9791,7 +9794,7 @@
       <c r="P72" s="14"/>
       <c r="Q72" s="14"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>35</v>
       </c>
@@ -9816,7 +9819,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>51</v>
       </c>
@@ -9833,7 +9836,7 @@
       <c r="P74" s="14"/>
       <c r="Q74" s="14"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L75" s="14"/>
       <c r="M75" s="17" t="s">
         <v>393</v>
@@ -9847,7 +9850,7 @@
       <c r="P75" s="14"/>
       <c r="Q75" s="14"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>45</v>
       </c>
@@ -9870,7 +9873,7 @@
       <c r="P76" s="14"/>
       <c r="Q76" s="14"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>156</v>
       </c>
@@ -9890,7 +9893,7 @@
       <c r="P77" s="14"/>
       <c r="Q77" s="14"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>157</v>
       </c>
@@ -9910,7 +9913,7 @@
       <c r="P78" s="14"/>
       <c r="Q78" s="14"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="L79" s="18"/>
       <c r="M79" s="19" t="s">
@@ -9925,7 +9928,7 @@
       <c r="P79" s="18"/>
       <c r="Q79" s="18"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>49</v>
       </c>
@@ -9967,7 +9970,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>50</v>
       </c>
@@ -9988,7 +9991,7 @@
       </c>
       <c r="Q81" s="14"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>155</v>
       </c>
@@ -10016,7 +10019,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>133</v>
       </c>
@@ -10036,7 +10039,7 @@
       <c r="P83" s="14"/>
       <c r="Q83" s="14"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>156</v>
       </c>
@@ -10068,7 +10071,7 @@
       <c r="P84" s="14"/>
       <c r="Q84" s="14"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>191</v>
       </c>
@@ -10088,7 +10091,7 @@
       <c r="P85" s="14"/>
       <c r="Q85" s="14"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>192</v>
       </c>
@@ -10112,7 +10115,7 @@
       <c r="P86" s="18"/>
       <c r="Q86" s="18"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>194</v>
       </c>
@@ -10136,7 +10139,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>141</v>
       </c>
@@ -10156,7 +10159,7 @@
       <c r="P88" s="14"/>
       <c r="Q88" s="14"/>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>160</v>
       </c>
@@ -10179,7 +10182,7 @@
       <c r="P89" s="14"/>
       <c r="Q89" s="14"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
         <v>196</v>
       </c>
@@ -10199,7 +10202,7 @@
       <c r="P90" s="18"/>
       <c r="Q90" s="18"/>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L91" s="12" t="s">
         <v>140</v>
       </c>
@@ -10217,7 +10220,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>53</v>
       </c>
@@ -10244,7 +10247,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>155</v>
       </c>
@@ -10264,7 +10267,7 @@
       <c r="P93" s="14"/>
       <c r="Q93" s="14"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>156</v>
       </c>
@@ -10284,7 +10287,7 @@
       <c r="P94" s="18"/>
       <c r="Q94" s="18"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>141</v>
       </c>
@@ -10308,7 +10311,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>197</v>
       </c>
@@ -10335,7 +10338,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>198</v>
       </c>
@@ -10355,7 +10358,7 @@
       <c r="P97" s="16"/>
       <c r="Q97" s="25"/>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>199</v>
       </c>
@@ -10375,7 +10378,7 @@
       <c r="P98" s="16"/>
       <c r="Q98" s="25"/>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>200</v>
       </c>
@@ -10395,7 +10398,7 @@
       <c r="P99" s="26"/>
       <c r="Q99" s="27"/>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L100" s="12" t="s">
         <v>62</v>
       </c>
@@ -10413,7 +10416,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L101" s="18"/>
       <c r="M101" s="19" t="s">
         <v>80</v>
@@ -10427,7 +10430,7 @@
       <c r="P101" s="18"/>
       <c r="Q101" s="18"/>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>54</v>
       </c>
@@ -10452,7 +10455,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>60</v>
       </c>
@@ -10476,7 +10479,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>194</v>
       </c>
@@ -10496,7 +10499,7 @@
       <c r="P104" s="19"/>
       <c r="Q104" s="19"/>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>201</v>
       </c>
@@ -10520,7 +10523,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>202</v>
       </c>
@@ -10538,7 +10541,7 @@
       <c r="P106" s="19"/>
       <c r="Q106" s="19"/>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L107" s="12" t="s">
         <v>58</v>
       </c>
@@ -10558,7 +10561,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L108" s="14"/>
       <c r="M108" s="21" t="s">
         <v>109</v>
@@ -10574,7 +10577,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L109" s="18"/>
       <c r="M109" s="24" t="s">
         <v>107</v>
@@ -10588,7 +10591,7 @@
       <c r="P109" s="18"/>
       <c r="Q109" s="18"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L110" s="42" t="s">
         <v>59</v>
       </c>
@@ -10606,7 +10609,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L111" s="42" t="s">
         <v>63</v>
       </c>
@@ -10624,7 +10627,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L112" s="15" t="s">
         <v>177</v>
       </c>
@@ -10642,7 +10645,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L113" s="17"/>
       <c r="M113" s="17" t="s">
         <v>172</v>
@@ -10656,7 +10659,7 @@
       <c r="P113" s="25"/>
       <c r="Q113" s="25"/>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>203</v>
       </c>
@@ -10673,7 +10676,7 @@
       <c r="P114" s="17"/>
       <c r="Q114" s="17"/>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>168</v>
       </c>
@@ -10696,7 +10699,7 @@
       <c r="P115" s="17"/>
       <c r="Q115" s="17"/>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>60</v>
       </c>
@@ -10718,7 +10721,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>156</v>
       </c>
@@ -10743,7 +10746,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B118" s="2" t="s">
         <v>181</v>
       </c>
@@ -10763,7 +10766,7 @@
       <c r="P118" s="17"/>
       <c r="Q118" s="17"/>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>182</v>
       </c>
@@ -10783,7 +10786,7 @@
       <c r="P119" s="19"/>
       <c r="Q119" s="19"/>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L120" s="12" t="s">
         <v>57</v>
       </c>
@@ -10801,7 +10804,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L121" s="14"/>
       <c r="M121" s="21" t="s">
         <v>114</v>
@@ -10817,7 +10820,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L122" s="18"/>
       <c r="M122" s="19" t="s">
         <v>80</v>
@@ -10831,7 +10834,7 @@
       <c r="P122" s="18"/>
       <c r="Q122" s="18"/>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>204</v>
       </c>
@@ -10852,7 +10855,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>42</v>
       </c>
@@ -10871,7 +10874,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>44</v>
       </c>
@@ -10888,7 +10891,7 @@
       <c r="P125" s="27"/>
       <c r="Q125" s="27"/>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>40</v>
       </c>
@@ -10911,7 +10914,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L127" s="16"/>
       <c r="M127" s="17" t="s">
         <v>249</v>
@@ -10929,7 +10932,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L128" s="24"/>
       <c r="M128" s="24" t="s">
         <v>80</v>
@@ -10941,7 +10944,7 @@
       <c r="P128" s="24"/>
       <c r="Q128" s="24"/>
     </row>
-    <row r="129" spans="12:17" x14ac:dyDescent="0.3">
+    <row r="129" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L129" s="18" t="s">
         <v>64</v>
       </c>
@@ -10959,7 +10962,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="130" spans="12:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L130" s="28" t="s">
         <v>211</v>
       </c>
@@ -10971,7 +10974,7 @@
       <c r="P130" s="28"/>
       <c r="Q130" s="28"/>
     </row>
-    <row r="131" spans="12:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L131" s="32" t="s">
         <v>157</v>
       </c>
@@ -10991,7 +10994,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="132" spans="12:17" x14ac:dyDescent="0.3">
+    <row r="132" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L132" s="33"/>
       <c r="M132" s="31" t="s">
         <v>15</v>
@@ -11005,7 +11008,7 @@
       <c r="P132" s="24"/>
       <c r="Q132" s="24"/>
     </row>
-    <row r="133" spans="12:17" x14ac:dyDescent="0.3">
+    <row r="133" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L133" s="20" t="s">
         <v>147</v>
       </c>
@@ -11025,7 +11028,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="134" spans="12:17" x14ac:dyDescent="0.3">
+    <row r="134" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L134" s="24"/>
       <c r="M134" s="24" t="s">
         <v>80</v>
@@ -11039,7 +11042,7 @@
       <c r="P134" s="18"/>
       <c r="Q134" s="18"/>
     </row>
-    <row r="135" spans="12:17" x14ac:dyDescent="0.3">
+    <row r="135" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L135" s="12" t="s">
         <v>237</v>
       </c>
@@ -11057,7 +11060,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="136" spans="12:17" x14ac:dyDescent="0.3">
+    <row r="136" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L136" s="18"/>
       <c r="M136" s="35" t="s">
         <v>413</v>
@@ -11071,7 +11074,7 @@
       <c r="P136" s="24"/>
       <c r="Q136" s="18"/>
     </row>
-    <row r="137" spans="12:17" x14ac:dyDescent="0.3">
+    <row r="137" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L137" s="24" t="s">
         <v>166</v>
       </c>
@@ -11089,7 +11092,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="138" spans="12:17" x14ac:dyDescent="0.3">
+    <row r="138" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L138" s="24" t="s">
         <v>180</v>
       </c>
@@ -11107,7 +11110,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="139" spans="12:17" x14ac:dyDescent="0.3">
+    <row r="139" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L139" s="12" t="s">
         <v>65</v>
       </c>
@@ -11127,7 +11130,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="140" spans="12:17" x14ac:dyDescent="0.3">
+    <row r="140" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L140" s="18"/>
       <c r="M140" s="19" t="s">
         <v>80</v>
@@ -11141,7 +11144,7 @@
       <c r="P140" s="18"/>
       <c r="Q140" s="18"/>
     </row>
-    <row r="141" spans="12:17" x14ac:dyDescent="0.3">
+    <row r="141" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L141" s="13" t="s">
         <v>181</v>
       </c>
@@ -11159,7 +11162,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="142" spans="12:17" x14ac:dyDescent="0.3">
+    <row r="142" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L142" s="21"/>
       <c r="M142" s="21" t="s">
         <v>273</v>
@@ -11175,7 +11178,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="143" spans="12:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="12:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L143" s="36"/>
       <c r="M143" s="21" t="s">
         <v>275</v>
@@ -11191,7 +11194,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="144" spans="12:17" x14ac:dyDescent="0.3">
+    <row r="144" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L144" s="14"/>
       <c r="M144" s="17" t="s">
         <v>99</v>
@@ -11205,7 +11208,7 @@
       <c r="P144" s="14"/>
       <c r="Q144" s="14"/>
     </row>
-    <row r="145" spans="12:17" x14ac:dyDescent="0.3">
+    <row r="145" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L145" s="14"/>
       <c r="M145" s="17" t="s">
         <v>99</v>
@@ -11219,7 +11222,7 @@
       <c r="P145" s="14"/>
       <c r="Q145" s="14"/>
     </row>
-    <row r="146" spans="12:17" x14ac:dyDescent="0.3">
+    <row r="146" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L146" s="18"/>
       <c r="M146" s="19" t="s">
         <v>80</v>
@@ -11233,7 +11236,7 @@
       <c r="P146" s="18"/>
       <c r="Q146" s="18"/>
     </row>
-    <row r="147" spans="12:17" x14ac:dyDescent="0.3">
+    <row r="147" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L147" s="2" t="s">
         <v>161</v>
       </c>
@@ -11264,15 +11267,15 @@
       <selection activeCell="A16" sqref="A16:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
     <col min="8" max="8" width="56" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" customWidth="1"/>
-    <col min="11" max="11" width="55.5546875" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" customWidth="1"/>
+    <col min="11" max="11" width="55.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>427</v>
       </c>
@@ -11280,7 +11283,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>429</v>
       </c>
@@ -11288,7 +11291,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>431</v>
       </c>
@@ -11296,7 +11299,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>432</v>
       </c>
@@ -11304,7 +11307,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>449</v>
       </c>
@@ -11325,7 +11328,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -11348,7 +11351,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
         <v>434</v>
       </c>
@@ -11371,7 +11374,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>436</v>
       </c>
@@ -11388,7 +11391,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>437</v>
       </c>
@@ -11403,7 +11406,7 @@
       </c>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>43</v>
       </c>
@@ -11411,7 +11414,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -11436,15 +11439,15 @@
       <selection activeCell="G49" sqref="A26:G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
-    <col min="4" max="4" width="25.5546875" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="14"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>470</v>
       </c>
@@ -11470,7 +11473,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>471</v>
       </c>
@@ -11500,7 +11503,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C3" s="9" t="s">
         <v>133</v>
       </c>
@@ -11515,7 +11518,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>61</v>
       </c>
@@ -11533,7 +11536,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>56</v>
       </c>
@@ -11551,7 +11554,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>138</v>
       </c>
@@ -11566,7 +11569,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>55</v>
       </c>
@@ -11581,7 +11584,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>140</v>
       </c>
@@ -11596,7 +11599,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>171</v>
       </c>
@@ -11613,7 +11616,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>58</v>
       </c>
@@ -11627,7 +11630,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>59</v>
       </c>
@@ -11647,7 +11650,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>63</v>
       </c>
@@ -11662,7 +11665,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>288</v>
       </c>
@@ -11679,7 +11682,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>64</v>
       </c>
@@ -11699,7 +11702,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>477</v>
       </c>
@@ -11722,12 +11725,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J16" s="14" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>482</v>
       </c>
@@ -11751,7 +11754,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>483</v>
       </c>
@@ -11777,7 +11780,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>474</v>
       </c>
@@ -11797,7 +11800,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>57</v>
       </c>
@@ -11814,7 +11817,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>145</v>
       </c>
@@ -11831,7 +11834,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>147</v>
       </c>
@@ -11848,7 +11851,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>499</v>
       </c>
@@ -11874,55 +11877,55 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J24" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J25" s="71" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J26" s="25" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J27" s="14" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J28" s="15" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J29" s="15" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J30" s="14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J31" s="21" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J32" s="25" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="69" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J69" s="21"/>
     </row>
-    <row r="70" spans="10:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="10:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J70" s="36"/>
     </row>
   </sheetData>
@@ -11938,28 +11941,28 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.88671875" customWidth="1"/>
-    <col min="4" max="4" width="31.5546875" customWidth="1"/>
-    <col min="8" max="10" width="21.77734375" customWidth="1"/>
-    <col min="11" max="11" width="20.5546875" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" customWidth="1"/>
-    <col min="13" max="13" width="21.77734375" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" customWidth="1"/>
+    <col min="8" max="10" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="67" t="s">
         <v>465</v>
       </c>
@@ -11975,7 +11978,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="66" t="s">
         <v>0</v>
       </c>
@@ -12008,7 +12011,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="46" t="s">
         <v>60</v>
       </c>
@@ -12035,7 +12038,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="46" t="s">
         <v>155</v>
       </c>
@@ -12060,7 +12063,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="46" t="s">
         <v>134</v>
       </c>
@@ -12089,7 +12092,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="46" t="s">
         <v>158</v>
       </c>
@@ -12114,7 +12117,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="46" t="s">
         <v>61</v>
       </c>
@@ -12135,7 +12138,7 @@
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="73" t="s">
         <v>137</v>
       </c>
@@ -12156,7 +12159,7 @@
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
     </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="74"/>
       <c r="B12" s="48" t="s">
         <v>3</v>
@@ -12183,7 +12186,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="46" t="s">
         <v>56</v>
       </c>
@@ -12208,7 +12211,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="73" t="s">
         <v>138</v>
       </c>
@@ -12237,7 +12240,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="75"/>
       <c r="B15" s="49" t="s">
         <v>170</v>
@@ -12264,7 +12267,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="74"/>
       <c r="B16" s="48" t="s">
         <v>3</v>
@@ -12289,7 +12292,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="46" t="s">
         <v>55</v>
       </c>
@@ -12316,7 +12319,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="46" t="s">
         <v>139</v>
       </c>
@@ -12343,7 +12346,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="73" t="s">
         <v>140</v>
       </c>
@@ -12368,7 +12371,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="74"/>
       <c r="B20" s="48" t="s">
         <v>3</v>
@@ -12395,7 +12398,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="46" t="s">
         <v>171</v>
       </c>
@@ -12418,7 +12421,7 @@
       <c r="L21" s="56"/>
       <c r="M21" s="56"/>
     </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="46" t="s">
         <v>62</v>
       </c>
@@ -12443,7 +12446,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="46" t="s">
         <v>58</v>
       </c>
@@ -12466,7 +12469,7 @@
       <c r="L23" s="56"/>
       <c r="M23" s="56"/>
     </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="46" t="s">
         <v>59</v>
       </c>
@@ -12493,7 +12496,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="46" t="s">
         <v>63</v>
       </c>
@@ -12514,7 +12517,7 @@
       </c>
       <c r="M25" s="14"/>
     </row>
-    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="46" t="s">
         <v>177</v>
       </c>
@@ -12539,7 +12542,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="73" t="s">
         <v>57</v>
       </c>
@@ -12566,7 +12569,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="74"/>
       <c r="B28" s="48" t="s">
         <v>114</v>
@@ -12591,7 +12594,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="46" t="s">
         <v>64</v>
       </c>
@@ -12618,7 +12621,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="73" t="s">
         <v>157</v>
       </c>
@@ -12642,7 +12645,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="74"/>
       <c r="B31" s="48" t="s">
         <v>15</v>
@@ -12664,7 +12667,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="46" t="s">
         <v>166</v>
       </c>
@@ -12688,7 +12691,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="46" t="s">
         <v>180</v>
       </c>
@@ -12712,7 +12715,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="46" t="s">
         <v>65</v>
       </c>
@@ -12736,7 +12739,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="46" t="s">
         <v>161</v>
       </c>
@@ -12754,7 +12757,7 @@
       <c r="L35" s="19"/>
       <c r="M35" s="19"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H36" s="12" t="s">
         <v>58</v>
       </c>
@@ -12774,7 +12777,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H37" s="14"/>
       <c r="I37" s="56" t="s">
         <v>109</v>
@@ -12790,7 +12793,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H38" s="42" t="s">
         <v>59</v>
       </c>
@@ -12808,7 +12811,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H39" s="18" t="s">
         <v>63</v>
       </c>
@@ -12826,7 +12829,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H40" s="15" t="s">
         <v>177</v>
       </c>
@@ -12844,7 +12847,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H41" s="15"/>
       <c r="I41" s="51" t="s">
         <v>80</v>
@@ -12860,7 +12863,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H42" s="15"/>
       <c r="I42" s="51" t="s">
         <v>80</v>
@@ -12876,7 +12879,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H43" s="12" t="s">
         <v>57</v>
       </c>
@@ -12894,7 +12897,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H44" s="14"/>
       <c r="I44" s="21" t="s">
         <v>114</v>
@@ -12910,7 +12913,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H45" s="57" t="s">
         <v>144</v>
       </c>
@@ -12928,7 +12931,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H46" s="51"/>
       <c r="I46" s="51" t="s">
         <v>28</v>
@@ -12944,7 +12947,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H47" s="60" t="s">
         <v>145</v>
       </c>
@@ -12964,7 +12967,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H48" s="18" t="s">
         <v>64</v>
       </c>
@@ -12982,7 +12985,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="49" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H49" s="32" t="s">
         <v>157</v>
       </c>
@@ -13002,7 +13005,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="50" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H50" s="33"/>
       <c r="I50" s="59" t="s">
         <v>15</v>
@@ -13016,7 +13019,7 @@
       <c r="L50" s="24"/>
       <c r="M50" s="24"/>
     </row>
-    <row r="51" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H51" s="57" t="s">
         <v>147</v>
       </c>
@@ -13036,7 +13039,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H52" s="63" t="s">
         <v>237</v>
       </c>
@@ -13054,7 +13057,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="53" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H53" s="61" t="s">
         <v>166</v>
       </c>
@@ -13072,7 +13075,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="54" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H54" s="26" t="s">
         <v>180</v>
       </c>
@@ -13090,7 +13093,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="55" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H55" s="12" t="s">
         <v>65</v>
       </c>
@@ -13110,7 +13113,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="56" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H56" s="52" t="s">
         <v>181</v>
       </c>
@@ -13128,7 +13131,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="57" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H57" s="56"/>
       <c r="I57" s="56" t="s">
         <v>273</v>
@@ -13144,7 +13147,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="58" spans="8:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H58" s="65"/>
       <c r="I58" s="53" t="s">
         <v>275</v>
@@ -13160,7 +13163,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="59" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H59" s="45" t="s">
         <v>161</v>
       </c>
@@ -13178,7 +13181,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="60" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H60" s="63" t="s">
         <v>288</v>
       </c>
@@ -13194,7 +13197,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="61" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H61" s="63" t="s">
         <v>288</v>
       </c>
@@ -13210,7 +13213,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="62" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H62" s="63" t="s">
         <v>288</v>
       </c>
@@ -13226,7 +13229,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="63" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H63" s="63" t="s">
         <v>288</v>
       </c>
@@ -13242,7 +13245,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="64" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H64" s="63" t="s">
         <v>288</v>
       </c>
@@ -13258,7 +13261,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="65" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H65" s="63" t="s">
         <v>288</v>
       </c>
